--- a/Notes/project plan.xlsx
+++ b/Notes/project plan.xlsx
@@ -81,9 +81,6 @@
     <t>host static website in EC2 linux instance</t>
   </si>
   <si>
-    <t>Host website in EC2</t>
-  </si>
-  <si>
     <t>EC2</t>
   </si>
   <si>
@@ -91,13 +88,16 @@
   </si>
   <si>
     <t>host static website in EC2 windows instance</t>
+  </si>
+  <si>
+    <t>Host website in linux EC2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +113,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +134,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,18 +149,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,7 +459,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -457,11 +472,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -499,7 +514,7 @@
       <c r="E4" s="1">
         <v>43836</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -519,8 +534,8 @@
       <c r="E5" s="1">
         <v>43838</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -537,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>43839</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>43840</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -557,18 +572,18 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -595,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>43840</v>
@@ -615,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>

--- a/Notes/project plan.xlsx
+++ b/Notes/project plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>s no</t>
   </si>
@@ -91,6 +91,72 @@
   </si>
   <si>
     <t>Host website in linux EC2</t>
+  </si>
+  <si>
+    <t>Python Projects</t>
+  </si>
+  <si>
+    <t>Cricket random score generation</t>
+  </si>
+  <si>
+    <t>A console application to generate score and show the winners with the score card</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>tic tac toe game</t>
+  </si>
+  <si>
+    <t>A tic tac toe game</t>
+  </si>
+  <si>
+    <t>Coding algorithms</t>
+  </si>
+  <si>
+    <t>Algorithm name</t>
+  </si>
+  <si>
+    <t>Practiced Languages</t>
+  </si>
+  <si>
+    <t>depth for search</t>
+  </si>
+  <si>
+    <t>breadth for search</t>
+  </si>
+  <si>
+    <t>branching paranthesis</t>
+  </si>
+  <si>
+    <t>Using Hash Tables</t>
+  </si>
+  <si>
+    <t>Variables/Pointers manipulation</t>
+  </si>
+  <si>
+    <t>sorting fundamentals</t>
+  </si>
+  <si>
+    <t>quicksort, mergesort,bubblesort techniques ,   runtime of a sort,time space complexity</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>custom data structures</t>
+  </si>
+  <si>
+    <t>object oriented programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse linked list </t>
+  </si>
+  <si>
+    <t>duplicates , removing duplicates</t>
+  </si>
+  <si>
+    <t>Binary search</t>
   </si>
 </sst>
 </file>
@@ -153,12 +219,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,16 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -571,9 +640,7 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>43847</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
         <v>16</v>
       </c>
@@ -621,8 +688,8 @@
       <c r="E13" s="1">
         <v>43840</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -641,14 +708,196 @@
       <c r="E14" s="1">
         <v>43841</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43846</v>
+      </c>
+      <c r="F20" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Notes/project plan.xlsx
+++ b/Notes/project plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>s no</t>
   </si>
@@ -157,6 +157,45 @@
   </si>
   <si>
     <t>Binary search</t>
+  </si>
+  <si>
+    <t>moving car animation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gW0dwO2JNmE&amp;ab_channel=EasyTutorials</t>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>Search engine</t>
+  </si>
+  <si>
+    <t>Using aws elasticsearch (DB), angular (FRONT END) and  AWS lambda (BACKEND)</t>
+  </si>
+  <si>
+    <t>aws/python/angular</t>
+  </si>
+  <si>
+    <t>Cloud Projects</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>Alexa integration with angular,lambda,dynamodb</t>
+  </si>
+  <si>
+    <t>aws/angular/python</t>
+  </si>
+  <si>
+    <t>Talking app</t>
+  </si>
+  <si>
+    <t>using Amazon polly to convert txt to mp3 and store it in s3 and read from angular and play</t>
+  </si>
+  <si>
+    <t>aws polly/angular/lambda python</t>
   </si>
 </sst>
 </file>
@@ -219,11 +258,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -541,11 +589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -645,12 +693,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -713,11 +778,11 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -755,6 +820,9 @@
       <c r="E19" s="1">
         <v>43844</v>
       </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
@@ -772,29 +840,36 @@
       <c r="E20" s="1">
         <v>43846</v>
       </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -808,95 +883,176 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43846</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
